--- a/修改list10.11.xlsx
+++ b/修改list10.11.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="16095" windowHeight="5520"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -30,107 +30,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品评论样式错位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品评论页和商品咨询页面的样式错位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包屑的背景色去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码改大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini购物车的icon换掉，加一个购物车商品数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车的弹窗的样式修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄、张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索栏里面的文字修改为商品名称和标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车的title全部商品改为“购物车”，加个竖线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品内容列表里面操作一栏的title和功能链接对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单按钮的阴影去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付金额四个字字号改小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式选中的样式，线条改为2像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付的按钮颜色改为暗红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心首页链接去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预充值功能隐藏，后期改为会员购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">购物车为空的“去逛逛”按钮换为红色好 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索栏的搜索图标没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品介绍title的宽度，以及样式修改为下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品属性的样式修改，背景颜色去掉，text-align：left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商品介绍tab栏切换效果参照考拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品属性的样式修改，背景颜色去掉，text-align：left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品评论样式错位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品评论页和商品咨询页面的样式错位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包屑的背景色去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码改大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品介绍title的宽度，以及样式修改为下划线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索栏的搜索图标没了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini购物车的icon换掉，加一个购物车商品数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车的弹窗的样式修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位背景色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄、张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索栏里面的文字修改为商品名称和标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车的title全部商品改为“购物车”，加个竖线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品内容列表里面操作一栏的title和功能链接对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单按钮的阴影去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付金额四个字字号改小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式选中的样式，线条改为2像素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即支付的按钮颜色改为暗红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员中心首页链接去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预充值功能隐藏，后期改为会员购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">购物车为空的“去逛逛”按钮换为红色好 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +154,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,18 +198,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -494,130 +534,130 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/修改list10.11.xlsx
+++ b/修改list10.11.xlsx
@@ -30,107 +30,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>面包屑的背景色去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码改大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini购物车的icon换掉，加一个购物车商品数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车的弹窗的样式修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄、张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索栏里面的文字修改为商品名称和标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车的title全部商品改为“购物车”，加个竖线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品内容列表里面操作一栏的title和功能链接对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付金额四个字字号改小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式选中的样式，线条改为2像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付的按钮颜色改为暗红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心首页链接去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预充值功能隐藏，后期改为会员购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">购物车为空的“去逛逛”按钮换为红色好 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索栏的搜索图标没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品介绍title的宽度，以及样式修改为下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品属性的样式修改，背景颜色去掉，text-align：left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单按钮的阴影去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品介绍tab栏切换效果参照考拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商品评论样式错位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品评论页和商品咨询页面的样式错位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包屑的背景色去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码改大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini购物车的icon换掉，加一个购物车商品数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车的弹窗的样式修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位背景色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄、张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索栏里面的文字修改为商品名称和标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车的title全部商品改为“购物车”，加个竖线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品内容列表里面操作一栏的title和功能链接对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单按钮的阴影去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付金额四个字字号改小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式选中的样式，线条改为2像素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即支付的按钮颜色改为暗红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员中心首页链接去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预充值功能隐藏，后期改为会员购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">购物车为空的“去逛逛”按钮换为红色好 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索栏的搜索图标没了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品介绍title的宽度，以及样式修改为下划线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品属性的样式修改，背景颜色去掉，text-align：left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品介绍tab栏切换效果参照考拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -534,130 +534,130 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>16</v>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
